--- a/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0637EA38-2BD8-4230-83F9-30BF67055B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E380B4C-A960-489C-B198-B32B4B35DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EE05E0E9-F249-4CD7-81B2-812041F4F38A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EE69DB7E-71F0-4988-9547-83B6A7041A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,84 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>98,46%</t>
   </si>
   <si>
@@ -94,15 +157,6 @@
     <t>95,72%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -118,37 +172,25 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -172,48 +214,6 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -247,6 +247,72 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
   </si>
   <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
     <t>2,54%</t>
   </si>
   <si>
@@ -295,46 +361,52 @@
     <t>91,48%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>8,4%</t>
@@ -391,78 +463,6 @@
     <t>94,56%</t>
   </si>
   <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
     <t>6,56%</t>
   </si>
   <si>
@@ -520,6 +520,84 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2015 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
     <t>9,63%</t>
   </si>
   <si>
@@ -574,52 +652,52 @@
     <t>96,14%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>13,3%</t>
@@ -674,84 +752,6 @@
   </si>
   <si>
     <t>89,82%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
   </si>
   <si>
     <t>11,68%</t>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAC7B0D-D3A4-4A67-BCC3-5EF682501957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBF296-5D62-4A5A-99CF-BD5DCE209271}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1315,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1330,40 +1330,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>41005</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14481</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>128</v>
-      </c>
-      <c r="N4" s="7">
-        <v>82310</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1372,43 +1372,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>642</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>642</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,10 +1417,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1432,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1447,10 +1447,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1479,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1491,10 +1491,10 @@
         <v>22417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -1506,10 +1506,10 @@
         <v>46304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1518,7 +1518,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1542,13 +1542,13 @@
         <v>707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1557,13 +1557,13 @@
         <v>707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,61 +1619,61 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7">
+        <v>41005</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>128</v>
+      </c>
+      <c r="N10" s="7">
+        <v>82310</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25677</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>90</v>
-      </c>
-      <c r="N10" s="7">
-        <v>64494</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1682,40 +1682,40 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>642</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>642</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1727,10 +1727,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1742,10 +1742,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1757,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1780,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1810,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1828,7 +1828,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>48</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>49</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>50</v>
@@ -1882,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1897,10 +1897,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1912,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1935,10 +1935,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1950,10 +1950,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1965,10 +1965,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1983,7 +1983,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>55</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>56</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>57</v>
@@ -2037,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2052,10 +2052,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2067,10 +2067,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2138,7 +2138,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>63</v>
@@ -2165,7 +2165,7 @@
         <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>65</v>
@@ -2180,7 +2180,7 @@
         <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>67</v>
@@ -2255,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C4A6D-646D-4DC9-88BE-98E683700E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5299BDF-21A1-4386-A24E-7202AB1C2B63}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2376,97 +2376,97 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>572</v>
+        <v>788</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6780</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>788</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7352</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>21900</v>
+        <v>1864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>17329</v>
+        <v>6234</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>39229</v>
+        <v>8097</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,10 +2475,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>22472</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2490,10 +2490,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>24109</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2505,10 +2505,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>46581</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2534,13 +2534,13 @@
         <v>1442</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2549,13 +2549,13 @@
         <v>715</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2564,19 +2564,19 @@
         <v>2157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>25</v>
@@ -2585,10 +2585,10 @@
         <v>17458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -2600,10 +2600,10 @@
         <v>16538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>11</v>
@@ -2615,13 +2615,13 @@
         <v>33996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,106 +2677,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2457</v>
+        <v>572</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>4212</v>
+        <v>6780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>6669</v>
+        <v>7352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>26802</v>
+        <v>21900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>25327</v>
+        <v>17329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>52129</v>
+        <v>39229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>29259</v>
+        <v>22472</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2800,10 +2800,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>29539</v>
+        <v>24109</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2815,10 +2815,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N12" s="7">
-        <v>58798</v>
+        <v>46581</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2838,100 +2838,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>788</v>
+        <v>1235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5626</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="7">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
       <c r="N13" s="7">
-        <v>788</v>
+        <v>6861</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>1864</v>
+        <v>24429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>6234</v>
+        <v>15446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="7">
+        <v>62</v>
+      </c>
+      <c r="N14" s="7">
+        <v>39875</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8097</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,10 +2940,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>25664</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2955,10 +2955,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>21072</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2970,10 +2970,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>46736</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2993,76 +2993,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1235</v>
+        <v>2457</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4212</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5626</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6669</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6861</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>24429</v>
+        <v>26802</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>15446</v>
+        <v>25327</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>135</v>
@@ -3074,10 +3074,10 @@
         <v>137</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N17" s="7">
-        <v>39875</v>
+        <v>52129</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>138</v>
@@ -3095,25 +3095,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7">
+        <v>29259</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
-        <v>25664</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>34</v>
-      </c>
       <c r="I18" s="7">
-        <v>21072</v>
+        <v>29539</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3125,10 +3125,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N18" s="7">
-        <v>46736</v>
+        <v>58798</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3196,7 +3196,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>129</v>
@@ -3313,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0B86D8-CFB5-4050-B4C1-9164FCDC91E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38599761-1DA3-441C-BB7B-55C29EB3A5EB}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,100 +3431,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2493</v>
+        <v>976</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1969</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2012</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="7">
-        <v>7</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4462</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>23391</v>
+        <v>1556</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2644</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4200</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="7">
-        <v>38</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22813</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="7">
-        <v>73</v>
-      </c>
-      <c r="N5" s="7">
-        <v>46204</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>25884</v>
+        <v>2532</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3548,10 +3548,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>24782</v>
+        <v>3680</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3563,10 +3563,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>50666</v>
+        <v>6212</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3592,13 +3592,13 @@
         <v>1452</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3607,13 +3607,13 @@
         <v>2247</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3622,19 +3622,19 @@
         <v>3700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -3643,10 +3643,10 @@
         <v>6596</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -3658,13 +3658,13 @@
         <v>8451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -3673,13 +3673,13 @@
         <v>15046</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,106 +3735,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2493</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>2219</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>1969</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4462</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4338</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6557</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>14458</v>
+        <v>23391</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="7">
+        <v>38</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22813</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="7">
+        <v>73</v>
+      </c>
+      <c r="N11" s="7">
+        <v>46204</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14082</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28540</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>16677</v>
+        <v>25884</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3858,10 +3858,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>18420</v>
+        <v>24782</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3873,10 +3873,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N12" s="7">
-        <v>35097</v>
+        <v>50666</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3899,97 +3899,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>976</v>
+        <v>663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>1036</v>
+        <v>4387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>2012</v>
+        <v>5049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>1556</v>
+        <v>12979</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>2644</v>
+        <v>14427</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" s="7">
+        <v>45</v>
+      </c>
+      <c r="N14" s="7">
+        <v>27407</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4200</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>2532</v>
+        <v>13642</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4013,10 +4013,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>3680</v>
+        <v>18814</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4028,10 +4028,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="N15" s="7">
-        <v>6212</v>
+        <v>32456</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4051,76 +4051,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>663</v>
+        <v>2219</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4338</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4387</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6557</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="M16" s="7">
-        <v>8</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5049</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>12979</v>
+        <v>14458</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>14427</v>
+        <v>14082</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>232</v>
@@ -4132,10 +4132,10 @@
         <v>234</v>
       </c>
       <c r="M17" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>27407</v>
+        <v>28540</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>235</v>
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>13642</v>
+        <v>16677</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4168,10 +4168,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>18814</v>
+        <v>18420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4183,10 +4183,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N18" s="7">
-        <v>32456</v>
+        <v>35097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4254,7 +4254,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>87</v>

--- a/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E380B4C-A960-489C-B198-B32B4B35DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB6A0D8-31DF-4BFB-8A76-EDDE5CBD2A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EE69DB7E-71F0-4988-9547-83B6A7041A6F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D3D6BB3-036E-4FE8-A3CF-46741009597E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="257">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,93 +106,84 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
     <t>94,97%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>83,21%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>92,49%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>90,63%</t>
+    <t>90,74%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>96,52%</t>
   </si>
   <si>
@@ -184,18 +193,18 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>96,64%</t>
   </si>
   <si>
@@ -205,13 +214,19 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -220,33 +235,33 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>96,49%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
   </si>
   <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
     <t>29,72%</t>
   </si>
   <si>
@@ -256,270 +271,273 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>23,61%</t>
+    <t>22,9%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>18,22%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>13,22%</t>
+    <t>12,92%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>14,96%</t>
+    <t>17,23%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2015 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
     <t>38,54%</t>
   </si>
   <si>
@@ -532,280 +550,265 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>53,74%</t>
+    <t>46,69%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>23,49%</t>
+    <t>25,74%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -912,39 +915,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -996,7 +999,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1107,13 +1110,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1122,6 +1118,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1186,19 +1189,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBF296-5D62-4A5A-99CF-BD5DCE209271}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B9E8BE-BFC5-44AD-8C1E-E97117B05885}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1315,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1330,34 +1353,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,10 +1389,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1381,34 +1404,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,13 +1446,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1438,13 +1461,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1453,13 +1476,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,49 +1493,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>23887</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>22417</v>
+        <v>707</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>46304</v>
+        <v>707</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,49 +1544,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>23887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>707</v>
+        <v>22417</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>707</v>
+        <v>46304</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1601,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1593,13 +1616,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1608,13 +1631,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,49 +1648,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41306</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>41005</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>82310</v>
+        <v>642</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,49 +1699,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>41005</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="N11" s="7">
-        <v>642</v>
+        <v>82310</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,13 +1756,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1748,13 +1771,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1763,13 +1786,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,49 +1803,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>35123</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>25164</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>60286</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,49 +1854,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>35123</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>25164</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>60286</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1911,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1903,13 +1926,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1918,13 +1941,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,49 +1958,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>38817</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>25677</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>64494</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,49 +2009,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>38817</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>25677</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>64494</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2066,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -2058,13 +2081,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -2073,13 +2096,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,49 +2113,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>143919</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="7">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>123956</v>
+        <v>1349</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M19" s="7">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>267875</v>
+        <v>1349</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,49 +2164,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>143919</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="I20" s="7">
-        <v>1349</v>
+        <v>123956</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="N20" s="7">
-        <v>1349</v>
+        <v>267875</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2221,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2213,13 +2236,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2228,13 +2251,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2255,8 +2283,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5299BDF-21A1-4386-A24E-7202AB1C2B63}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBB3F44-3618-4348-B997-908C42B930FF}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2272,7 +2300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2373,49 +2401,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>788</v>
+        <v>1864</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>788</v>
+        <v>8097</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,49 +2452,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1864</v>
+        <v>788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>6234</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>8097</v>
+        <v>788</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2509,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2496,13 +2524,13 @@
         <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2511,13 +2539,13 @@
         <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,49 +2556,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>1442</v>
+        <v>17458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>715</v>
+        <v>16538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>2157</v>
+        <v>33996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,49 +2607,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>17458</v>
+        <v>1442</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>715</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="7">
-        <v>22</v>
-      </c>
-      <c r="I8" s="7">
-        <v>16538</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>33996</v>
+        <v>2157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2664,13 @@
         <v>18900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -2651,13 +2679,13 @@
         <v>17253</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -2666,13 +2694,13 @@
         <v>36153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2711,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>572</v>
+        <v>21900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>6780</v>
+        <v>17329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>7352</v>
+        <v>39229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,49 +2762,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>21900</v>
+        <v>572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6780</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="7">
         <v>11</v>
       </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17329</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="7">
-        <v>57</v>
-      </c>
       <c r="N11" s="7">
-        <v>39229</v>
+        <v>7352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2819,13 @@
         <v>22472</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -2806,13 +2834,13 @@
         <v>24109</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -2821,13 +2849,13 @@
         <v>46581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,49 +2866,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>1235</v>
+        <v>24429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>5626</v>
+        <v>15446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>6861</v>
+        <v>39875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,49 +2917,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>24429</v>
+        <v>1235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5626</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="7">
         <v>11</v>
       </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15446</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="7">
-        <v>62</v>
-      </c>
       <c r="N14" s="7">
-        <v>39875</v>
+        <v>6861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2974,13 @@
         <v>25664</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -2961,13 +2989,13 @@
         <v>21072</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>73</v>
@@ -2976,13 +3004,13 @@
         <v>46736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +3021,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>2457</v>
+        <v>26802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>4212</v>
+        <v>25327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N16" s="7">
-        <v>6669</v>
+        <v>52129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,49 +3072,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>26802</v>
+        <v>2457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>25327</v>
+        <v>4212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>52129</v>
+        <v>6669</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3129,13 @@
         <v>29259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -3116,13 +3144,13 @@
         <v>29539</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -3131,13 +3159,13 @@
         <v>58798</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +3176,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7">
-        <v>6494</v>
+        <v>92453</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="I19" s="7">
-        <v>17333</v>
+        <v>80874</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="N19" s="7">
-        <v>23827</v>
+        <v>173326</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,49 +3227,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>92453</v>
+        <v>6494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>80874</v>
+        <v>17333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="N20" s="7">
-        <v>173326</v>
+        <v>23827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3284,13 @@
         <v>98947</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>140</v>
@@ -3271,13 +3299,13 @@
         <v>98207</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>278</v>
@@ -3286,13 +3314,18 @@
         <v>197153</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3313,8 +3346,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38599761-1DA3-441C-BB7B-55C29EB3A5EB}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F61075B-183C-4BF9-9553-4E663EE2DF8A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3330,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3431,49 +3464,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>976</v>
+        <v>1556</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1036</v>
+        <v>2644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2012</v>
+        <v>4200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,49 +3515,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>976</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1036</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>1556</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>2012</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2644</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4200</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3572,13 @@
         <v>2532</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3554,13 +3587,13 @@
         <v>3680</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3569,13 +3602,13 @@
         <v>6212</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,49 +3619,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>1452</v>
+        <v>6596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>2247</v>
+        <v>8451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>3700</v>
+        <v>15046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,49 +3670,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>6596</v>
+        <v>1452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>8451</v>
+        <v>2247</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>15046</v>
+        <v>3700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3727,13 @@
         <v>8048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3709,13 +3742,13 @@
         <v>10698</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -3724,13 +3757,13 @@
         <v>18746</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,49 +3774,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>2493</v>
+        <v>23391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>1969</v>
+        <v>22813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>4462</v>
+        <v>46204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,49 +3825,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>23391</v>
+        <v>2493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>22813</v>
+        <v>1969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>46204</v>
+        <v>4462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3882,13 @@
         <v>25884</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -3864,13 +3897,13 @@
         <v>24782</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -3879,13 +3912,13 @@
         <v>50666</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3929,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>663</v>
+        <v>12979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>4387</v>
+        <v>14427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>5049</v>
+        <v>27407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,49 +3980,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>12979</v>
+        <v>663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>14427</v>
+        <v>4387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>27407</v>
+        <v>5049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4037,13 @@
         <v>13642</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -4019,13 +4052,13 @@
         <v>18814</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -4034,13 +4067,13 @@
         <v>32456</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +4084,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>2219</v>
+        <v>14458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>4338</v>
+        <v>14082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N16" s="7">
-        <v>6557</v>
+        <v>28540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,49 +4135,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>14458</v>
+        <v>2219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>14082</v>
+        <v>4338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>28540</v>
+        <v>6557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4192,13 @@
         <v>16677</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4174,13 +4207,13 @@
         <v>18420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -4189,13 +4222,13 @@
         <v>35097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,49 +4239,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7">
-        <v>7803</v>
+        <v>58981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I19" s="7">
-        <v>13976</v>
+        <v>62418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="N19" s="7">
-        <v>21779</v>
+        <v>121399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,49 +4290,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>58981</v>
+        <v>7803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
-        <v>62418</v>
+        <v>13976</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="N20" s="7">
-        <v>121399</v>
+        <v>21779</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4347,13 @@
         <v>66784</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -4329,13 +4362,13 @@
         <v>76394</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
@@ -4344,13 +4377,18 @@
         <v>143178</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB6A0D8-31DF-4BFB-8A76-EDDE5CBD2A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08399F7-3078-4DE7-9ECE-BFB37E0A44D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D3D6BB3-036E-4FE8-A3CF-46741009597E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B50FDFCA-B6AA-47F2-A552-62099E6618C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -115,13 +115,13 @@
     <t>3,06%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>7,51%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -130,16 +130,16 @@
     <t>96,94%</t>
   </si>
   <si>
-    <t>87,54%</t>
+    <t>84,04%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -148,13 +148,13 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>7,75%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -163,16 +163,16 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>90,74%</t>
+    <t>92,25%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,48%</t>
@@ -220,13 +220,13 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -235,13 +235,13 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>95,61%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -259,7 +259,7 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>52,81%</t>
+    <t>57,61%</t>
   </si>
   <si>
     <t>29,72%</t>
@@ -271,25 +271,25 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>47,19%</t>
+    <t>42,39%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>77,1%</t>
+    <t>76,73%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>81,78%</t>
+    <t>79,48%</t>
   </si>
   <si>
     <t>94,03%</t>
   </si>
   <si>
-    <t>85,79%</t>
+    <t>84,14%</t>
   </si>
   <si>
     <t>98,08%</t>
@@ -298,13 +298,13 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>22,9%</t>
+    <t>23,27%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>18,22%</t>
+    <t>20,52%</t>
   </si>
   <si>
     <t>5,97%</t>
@@ -313,214 +313,208 @@
     <t>1,92%</t>
   </si>
   <si>
-    <t>14,21%</t>
+    <t>15,86%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>87,08%</t>
+    <t>88,65%</t>
   </si>
   <si>
     <t>71,88%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>12,92%</t>
+    <t>11,35%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>82,77%</t>
+    <t>84,6%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>15,4%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2015 (Tasa respuesta: 10,07%)</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
     <t>61,46%</t>
@@ -535,7 +529,7 @@
     <t>67,62%</t>
   </si>
   <si>
-    <t>23,74%</t>
+    <t>23,99%</t>
   </si>
   <si>
     <t>38,54%</t>
@@ -550,265 +544,259 @@
     <t>32,38%</t>
   </si>
   <si>
-    <t>76,26%</t>
+    <t>76,01%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>53,31%</t>
+    <t>46,46%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>46,69%</t>
+    <t>53,54%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>79,15%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>20,85%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>74,26%</t>
+    <t>76,78%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>25,74%</t>
+    <t>23,22%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B9E8BE-BFC5-44AD-8C1E-E97117B05885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B877A-B45C-4843-9386-7AF20B466ABF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2283,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBB3F44-3618-4348-B997-908C42B930FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075A927E-B0D6-4BB9-B773-D2D8304ABE70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3212,13 +3200,13 @@
         <v>173326</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3221,13 @@
         <v>6494</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3248,13 +3236,13 @@
         <v>17333</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -3263,13 +3251,13 @@
         <v>23827</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,7 +3334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F61075B-183C-4BF9-9553-4E663EE2DF8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9937548D-B8C4-4137-A3BF-16C666EEF4BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3363,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3470,7 +3458,7 @@
         <v>1556</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -3485,10 +3473,10 @@
         <v>2644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>17</v>
@@ -3500,10 +3488,10 @@
         <v>4200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -3521,7 +3509,7 @@
         <v>976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3536,13 +3524,13 @@
         <v>1036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3551,13 +3539,13 @@
         <v>2012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,10 +3613,10 @@
         <v>6596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
@@ -3640,13 +3628,13 @@
         <v>8451</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3655,13 +3643,13 @@
         <v>15046</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3664,13 @@
         <v>1452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3691,13 +3679,13 @@
         <v>2247</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3706,13 +3694,13 @@
         <v>3700</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3768,13 @@
         <v>23391</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3795,13 +3783,13 @@
         <v>22813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -3810,13 +3798,13 @@
         <v>46204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3819,13 @@
         <v>2493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3846,13 +3834,13 @@
         <v>1969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3861,13 +3849,13 @@
         <v>4462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,10 +3923,10 @@
         <v>12979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -3950,13 +3938,13 @@
         <v>14427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3965,13 +3953,13 @@
         <v>27407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3974,13 @@
         <v>663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4001,13 +3989,13 @@
         <v>4387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -4016,13 +4004,13 @@
         <v>5049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4078,13 @@
         <v>14458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4105,13 +4093,13 @@
         <v>14082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4120,13 +4108,13 @@
         <v>28540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4129,13 @@
         <v>2219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4156,13 +4144,13 @@
         <v>4338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4171,13 +4159,13 @@
         <v>6557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4233,13 @@
         <v>58981</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -4260,13 +4248,13 @@
         <v>62418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>183</v>
@@ -4275,13 +4263,13 @@
         <v>121399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4284,13 @@
         <v>7803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4311,13 +4299,13 @@
         <v>13976</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -4326,13 +4314,13 @@
         <v>21779</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F08399F7-3078-4DE7-9ECE-BFB37E0A44D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3159D1CC-8617-4472-B5C4-B2AD5D5D4070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B50FDFCA-B6AA-47F2-A552-62099E6618C5}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D136A3C9-B180-4D7A-A007-C30F8BA81B93}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,655 +67,607 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>12,87%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>95,66%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,31%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>1,98%</t>
   </si>
   <si>
+    <t>95,56%</t>
+  </si>
+  <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
     <t>98,02%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>5,45%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
+    <t>94,55%</t>
+  </si>
+  <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>86,78%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>13,22%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>85,04%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
+    <t>14,96%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>95,14%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>76,51%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>23,49%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>67,21%</t>
+    <t>67,57%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>13,3%</t>
@@ -724,79 +676,70 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>32,43%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B877A-B45C-4843-9386-7AF20B466ABF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA042D8B-4BB5-4C1A-AA78-EC5B82FE9DD7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1326,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1347,79 +1290,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>32111</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>60785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,153 +1371,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>707</v>
+        <v>642</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>23887</v>
+        <v>41005</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7">
+        <v>41306</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="7">
-        <v>22417</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="N8" s="7">
-        <v>46304</v>
+        <v>82310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,54 +1526,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1642,94 +1585,94 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>642</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>41005</v>
+        <v>35123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>82310</v>
+        <v>60286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,49 +1681,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>45</v>
@@ -1812,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>46</v>
@@ -1827,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>47</v>
@@ -1839,52 +1782,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,66 +1836,66 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -1967,79 +1910,79 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7">
+        <v>123956</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7">
-        <v>38817</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>403</v>
       </c>
       <c r="N17" s="7">
-        <v>64494</v>
+        <v>267875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,217 +1991,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1349</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>215</v>
-      </c>
-      <c r="D20" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>188</v>
-      </c>
-      <c r="I20" s="7">
-        <v>123956</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>403</v>
-      </c>
-      <c r="N20" s="7">
-        <v>267875</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2271,8 +2058,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075A927E-B0D6-4BB9-B773-D2D8304ABE70}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACD1164-5E50-46E5-A5DF-D0332406AD34}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2288,7 +2075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2389,100 +2176,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>1864</v>
+        <v>22771</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>6234</v>
+        <v>19322</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>8097</v>
+        <v>42093</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>788</v>
+        <v>715</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2230</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2945</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>788</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,78 +2278,78 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>23486</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>21552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>45038</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>17458</v>
+        <v>17329</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>16538</v>
+        <v>21900</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>80</v>
@@ -2571,13 +2358,13 @@
         <v>81</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>33996</v>
+        <v>39229</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>82</v>
@@ -2592,52 +2379,52 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>1442</v>
+        <v>6780</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>715</v>
+        <v>572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="7">
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
       <c r="N8" s="7">
-        <v>2157</v>
+        <v>7352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,153 +2433,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>18900</v>
+        <v>24109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>17253</v>
+        <v>22472</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N9" s="7">
-        <v>36153</v>
+        <v>46581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>21900</v>
+        <v>15446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>17329</v>
+        <v>24429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>39229</v>
+        <v>39875</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>572</v>
+        <v>5626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>6780</v>
+        <v>1235</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>7352</v>
+        <v>6861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,49 +2588,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>22472</v>
+        <v>21072</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7">
-        <v>24109</v>
+        <v>25664</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N12" s="7">
-        <v>46581</v>
+        <v>46736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,100 +2641,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>24429</v>
+        <v>25327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>15446</v>
+        <v>26802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>39875</v>
+        <v>52129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>1235</v>
+        <v>4212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>5626</v>
+        <v>2457</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>6861</v>
+        <v>6669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,150 +2746,150 @@
         <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>25664</v>
+        <v>29539</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I15" s="7">
-        <v>21072</v>
+        <v>29259</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>46736</v>
+        <v>58798</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>26802</v>
+        <v>80874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I16" s="7">
-        <v>25327</v>
+        <v>92453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="N16" s="7">
-        <v>52129</v>
+        <v>173326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>2457</v>
+        <v>17333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>4212</v>
+        <v>6494</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>6669</v>
+        <v>23827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,217 +2898,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="D18" s="7">
-        <v>29259</v>
+        <v>98207</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="I18" s="7">
-        <v>29539</v>
+        <v>98947</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="N18" s="7">
-        <v>58798</v>
+        <v>197153</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>129</v>
-      </c>
-      <c r="D19" s="7">
-        <v>92453</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="7">
-        <v>115</v>
-      </c>
-      <c r="I19" s="7">
-        <v>80874</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M19" s="7">
-        <v>244</v>
-      </c>
-      <c r="N19" s="7">
-        <v>173326</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6494</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="7">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7">
-        <v>17333</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M20" s="7">
-        <v>34</v>
-      </c>
-      <c r="N20" s="7">
-        <v>23827</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>138</v>
-      </c>
-      <c r="D21" s="7">
-        <v>98947</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>140</v>
-      </c>
-      <c r="I21" s="7">
-        <v>98207</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>278</v>
-      </c>
-      <c r="N21" s="7">
-        <v>197153</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
+      <c r="A19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3334,8 +2965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9937548D-B8C4-4137-A3BF-16C666EEF4BC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B7C75A-09F4-4934-83C7-B867FBE19963}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3351,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3452,100 +3083,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>1556</v>
+        <v>11095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
       <c r="I4" s="7">
-        <v>2644</v>
+        <v>8152</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>4200</v>
+        <v>19246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>976</v>
+        <v>3283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1036</v>
+        <v>2428</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>2012</v>
+        <v>5712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,153 +3185,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>2532</v>
+        <v>14378</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>3680</v>
+        <v>10580</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>6212</v>
+        <v>24958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>6596</v>
+        <v>22813</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="7">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7">
+        <v>23391</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>73</v>
+      </c>
+      <c r="N7" s="7">
+        <v>46204</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8451</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M7" s="7">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7">
-        <v>15046</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1452</v>
+        <v>1969</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2493</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2247</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4462</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3700</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,153 +3340,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>8048</v>
+        <v>24782</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7">
-        <v>10698</v>
+        <v>25884</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="N9" s="7">
-        <v>18746</v>
+        <v>50666</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>23391</v>
+        <v>14427</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12979</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="7">
+        <v>45</v>
+      </c>
+      <c r="N10" s="7">
+        <v>27407</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22813</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>46204</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2493</v>
+        <v>4387</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>663</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5049</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1969</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4462</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,49 +3495,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
-        <v>25884</v>
+        <v>18814</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>24782</v>
+        <v>13642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="N12" s="7">
-        <v>50666</v>
+        <v>32456</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,100 +3548,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>12979</v>
+        <v>14082</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14458</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14427</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>39</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28540</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M13" s="7">
-        <v>45</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27407</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>663</v>
+        <v>4338</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2219</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4387</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6557</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5049</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,153 +3650,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
-        <v>13642</v>
+        <v>18420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I15" s="7">
-        <v>18814</v>
+        <v>16677</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N15" s="7">
-        <v>32456</v>
+        <v>35097</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7">
-        <v>14458</v>
+        <v>62418</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>87</v>
+      </c>
+      <c r="I16" s="7">
+        <v>58981</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14082</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>183</v>
+      </c>
+      <c r="N16" s="7">
+        <v>121399</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M16" s="7">
-        <v>39</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28540</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>2219</v>
+        <v>13976</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7803</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4338</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21779</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6557</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,217 +3805,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="D18" s="7">
-        <v>16677</v>
+        <v>76394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7">
-        <v>18420</v>
+        <v>66784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="N18" s="7">
-        <v>35097</v>
+        <v>143178</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>58981</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" s="7">
-        <v>96</v>
-      </c>
-      <c r="I19" s="7">
-        <v>62418</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M19" s="7">
-        <v>183</v>
-      </c>
-      <c r="N19" s="7">
-        <v>121399</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7">
-        <v>7803</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13976</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M20" s="7">
-        <v>31</v>
-      </c>
-      <c r="N20" s="7">
-        <v>21779</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7">
-        <v>66784</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>116</v>
-      </c>
-      <c r="I21" s="7">
-        <v>76394</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>214</v>
-      </c>
-      <c r="N21" s="7">
-        <v>143178</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
+      <c r="A19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
